--- a/daily_matches/job_matches_2026-02-25.xlsx
+++ b/daily_matches/job_matches_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,122 +473,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer - AI team</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Ascensus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brooklyn Park, MN, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>21.1</v>
+        <v>15.6</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Machine Learning Engineer, RAG, TensorFlow, PyTorch, XGBoost, Azure ML, Docker, Kubernetes</t>
+          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Git, MongoDB, Cassandra, NoSQL, SQL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fcd4d824813f7cb9</t>
+          <t>https://www.indeed.com/viewjob?jk=a5a47a44d6a3f091</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Data Scientist (Sales Operations)</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Ascensus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>Dresher, PA, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.8</v>
+        <v>15.6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, TensorFlow, PyTorch, XGBoost, Git, Snowflake, Hadoop, Matplotlib</t>
+          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Git, MongoDB, Cassandra, NoSQL, SQL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6139e59e099ba6a8</t>
+          <t>https://www.indeed.com/viewjob?jk=b29f4a8356c6b860</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Backend Engineer - Platform Enablement</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auction Technology Group</t>
+          <t>Ascensus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Newton, MA, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.8</v>
+        <v>15.6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>S3, FastAPI, Docker, Kubernetes, CI/CD, GitHub Actions, Terraform, Git, Kafka, PostgreSQL</t>
+          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Git, MongoDB, Cassandra, NoSQL, SQL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b5df47aafd3009ff</t>
+          <t>https://www.indeed.com/viewjob?jk=d3faf055caa8c357</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Senior Analytical Engineer</t>
+          <t>Software Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Ascensus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -596,42 +596,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Copilot, Prompt Engineering, Synapse, CI/CD, GitHub Actions, Git, Databricks, PySpark</t>
+          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Git, MongoDB, Cassandra, NoSQL, SQL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=fa8d280f0f8b9b62</t>
+          <t>https://www.indeed.com/viewjob?jk=9944f1992e587dd2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Machine Learning Operations Engineer</t>
+          <t>Sr Kubernetes Support Engineer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Merlin Labs</t>
+          <t>Applied Digital</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Boston, MA, US USA</t>
+          <t>Dallas, TX, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15.6</v>
+        <v>12.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RAG, TensorFlow, PyTorch, MLflow, Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform</t>
+          <t>RAG, S3, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Git, Python, R</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c5f002df8ebe456c</t>
+          <t>https://www.indeed.com/viewjob?jk=cdec7e9b918df96f</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Identity Shield &amp; Consumer Fraud - FDP</t>
+          <t>AI Engineer (Hybrid)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ally Financial</t>
+          <t>Securian Financial</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Charlotte, NC, US USA</t>
+          <t>Saint Paul, MN, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14.4</v>
+        <v>12.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Glue, Kinesis, Terraform, Git, PostgreSQL, NoSQL, Python, SQL</t>
+          <t>AI Engineer, Data Scientist, RAG, S3, Redshift, Docker, CI/CD, Git, Redshift, Python</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,32 +676,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5a541a3b49011d60</t>
+          <t>https://www.indeed.com/viewjob?jk=657257b49d100f7d</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>Applied Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>PermitFlow</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Palo Alto, CA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Scientist, Machine Learning Engineer, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Git, Python</t>
+          <t>Machine Learning Engineer, RAG, Hugging Face, FAISS, Pinecone, TensorFlow, PyTorch, Python, R, Scala</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,32 +711,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0270ac4b349b6312</t>
+          <t>https://www.indeed.com/viewjob?jk=646dc9d268ab9855</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Associate MLOps Engineer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BlueCross BlueShield of Tennessee</t>
+          <t>Electronic Arts</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chattanooga, TN, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, MLflow, Kubernetes, CI/CD, Terraform, Git, Databricks, Python, SQL</t>
+          <t>Generative AI, RAG, Docker, Kubernetes, Git, Kafka, Python, R, Java, Scala</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,32 +746,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=12aaaa019404f086</t>
+          <t>https://www.indeed.com/viewjob?jk=502f6f12a28cea57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Senior Data Scientist - Market Intelligence</t>
+          <t>Senior Data Engineer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pattern</t>
+          <t>HCA Healthcare</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lehi, UT, US USA</t>
+          <t>Nashville, TN, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, S3, Git, Snowflake, Databricks, Tableau, Python, SQL, R</t>
+          <t>Data Scientist, RAG, BigQuery, CI/CD, Git, BigQuery, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,32 +781,32 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=79c22dca96971f27</t>
+          <t>https://www.indeed.com/viewjob?jk=bb3b123f509108b3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Senior Data Engineer, Business Operations</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SK Life Science Inc.</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Paramus, NJ, US USA</t>
+          <t>Tampa, FL, US USA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AI Engineer, Data Lake, MLflow, CI/CD, Snowflake, PySpark, Tableau, Python, SQL, R</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,32 +816,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=92ebeb9e75e44d14</t>
+          <t>https://www.indeed.com/viewjob?jk=7042913cb3c18b91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Neubus, Inc.</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Round Rock, TX, US USA</t>
+          <t>Oakbrook Terrace, IL, US USA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>S3, Kinesis, Docker, Kubernetes, CI/CD, Terraform, Kafka, NoSQL, Python, SQL</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,32 +851,32 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8c9f0c027bd53428</t>
+          <t>https://www.indeed.com/viewjob?jk=ceb216e24bddfb8c</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Senior AI Platform Engineer</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>eLend</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Parsippany-Troy Hills, NJ, US USA</t>
+          <t>Fort Lauderdale, FL, US USA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AI Engineer, LangChain, RAG, Copilot, Prompt Engineering, Data Lake, Git, Python, R, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -886,32 +886,32 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=01a4b9f4b544522a</t>
+          <t>https://www.indeed.com/viewjob?jk=a0ea25db2f442c4c</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Applied Scientist II</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Coalition Inc.</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Austin, TX, US USA</t>
+          <t>Washington, DC, US USA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Prompt Engineering, TensorFlow, PyTorch, XGBoost, LightGBM, MLflow, Git, Python</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -921,137 +921,137 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c44f6e27671d0751</t>
+          <t>https://www.indeed.com/viewjob?jk=9f0bf7e3675985c0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Senior Generative AI Developer-2</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Realign</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Irving, TX, US USA</t>
+          <t>Tallahassee, FL, US USA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Prompt Engineering, FastAPI, Docker, Kubernetes, CI/CD, Python, SQL, R</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2cc7b01e27ef8eed</t>
+          <t>https://www.indeed.com/viewjob?jk=9ab032bd9c4650d9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Senior Generative AI Developer-2</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Realign</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tampa, FL, US USA</t>
+          <t>Sarasota, FL, US USA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Prompt Engineering, FastAPI, Docker, Kubernetes, CI/CD, Python, SQL, R</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=70b9eef89ae91e7e</t>
+          <t>https://www.indeed.com/viewjob?jk=73fdec9d21f63103</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Senior Generative AI Developer-2</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Realign</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Jersey City, NJ, US USA</t>
+          <t>Springfield, IL, US USA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Prompt Engineering, FastAPI, Docker, Kubernetes, CI/CD, Python, SQL, R</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=43829bc7d33267e8</t>
+          <t>https://www.indeed.com/viewjob?jk=46849b72269ccade</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Senior Software Engineer, athenaCollector</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>athenahealth</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Boston, MA, US USA</t>
+          <t>Woodland Hills, CA, US USA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13.3</v>
+        <v>10</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RAG, EC2, Athena, Docker, Kubernetes, Terraform, Git, PostgreSQL, SQL, R</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1061,32 +1061,32 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a644d0b93b188f41</t>
+          <t>https://www.indeed.com/viewjob?jk=096be93b517e13f7</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Senior Software SDET Test Development Engineer</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NVIDIA</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Santa Clara, CA, US USA</t>
+          <t>The Woodlands, TX, US USA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Jenkins, Git, Python, R</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1096,32 +1096,32 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=17ee55a9408b23a8</t>
+          <t>https://www.indeed.com/viewjob?jk=bf4d085277f93dfa</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sr. eCommerce Engineer - Sarnova - Remote</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sarnova HC, LLC</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>San Jose, CA, US USA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Terraform, Git, Python, SQL, R, Java</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1131,32 +1131,32 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2d48001a6831a200</t>
+          <t>https://www.indeed.com/viewjob?jk=ea927bb48d401f76</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AI &amp; Automation Engineer</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Minted</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>San Francisco, CA, US USA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, Copilot, Prompt Engineering, CI/CD, Git, Python, R, Java, Julia</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1166,32 +1166,32 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b289b17be43f4ac2</t>
+          <t>https://www.indeed.com/viewjob?jk=170be9cb0443b141</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ML Ops Intern</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mercedes-Benz Group</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>San Jose, CA, US USA</t>
+          <t>Plano, TX, US USA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer, AWS SageMaker, Kubernetes, CI/CD, Git, Databricks, Hadoop, Python, SQL, R</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1201,32 +1201,32 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d57da6647a38babb</t>
+          <t>https://www.indeed.com/viewjob?jk=f6b6b97f76315f9f</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AI Engineer, Business Operations</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SK Life Science Inc.</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Paramus, NJ, US USA</t>
+          <t>South Bend, IN, US USA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AI Engineer, RAG, Docker, Kubernetes, CI/CD, Snowflake, Python, SQL, R, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1236,32 +1236,32 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=77ea28bb19313647</t>
+          <t>https://www.indeed.com/viewjob?jk=acc406eea674a3f6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AI Engineer</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Quantivly</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Somerville, MA, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AI Engineer, RAG, Hugging Face, TensorFlow, PyTorch, FastAPI, Docker, CI/CD, Python, R</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1271,67 +1271,67 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=bfa5054343e8425f</t>
+          <t>https://www.indeed.com/viewjob?jk=892929e67adc6a45</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Senior Platform Developer (AI)</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rayonic Inc.</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Herndon, VA, US USA</t>
+          <t>Livingston, NJ, US USA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hugging Face, TensorFlow, PyTorch, Keras, spaCy, NLTK, NoSQL, Python, SQL, R</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e576b6e4a56a7ef4</t>
+          <t>https://www.indeed.com/viewjob?jk=ef2af99d63b8f533</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Data Scientist - 994</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lightcast</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Los Angeles, CA, US USA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, PyTorch, MLflow, Apache Airflow, Tableau, Power BI, Python, SQL, R</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1341,32 +1341,32 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=21749756fce93ad8</t>
+          <t>https://www.indeed.com/viewjob?jk=a86a48ceaa18feb1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Prospect Infosys Inc</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hartford, CT, US USA</t>
+          <t>Sacramento, CA, US USA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Data Scientist, TensorFlow, PyTorch, MLflow, Docker, Tableau, Power BI, Python, SQL, R</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1376,32 +1376,32 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=56d01c4c2879e750</t>
+          <t>https://www.indeed.com/viewjob?jk=41ea1c7beb9e940a</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Software Engineer III, Backend - Recs Infrastructure</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Match Group</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Palo Alto, CA, US USA</t>
+          <t>Nashville, TN, US USA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Kafka, Cassandra, NoSQL, SQL, R, Java</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1411,32 +1411,32 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=123628d5e21a6f89</t>
+          <t>https://www.indeed.com/viewjob?jk=4235bb01a60e686f</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Software Engineer III, Backend - Recs Infrastructure</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Match Group</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, US USA</t>
+          <t>Lexington, KY, US USA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12.2</v>
+        <v>10</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Kafka, Cassandra, NoSQL, SQL, R, Java</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1446,32 +1446,32 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e64c7b902fd5f682</t>
+          <t>https://www.indeed.com/viewjob?jk=8528253580a27d9d</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Senior Java Full Stack Engineer (w/Angular 16+) - Onsite Hybrid</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NTT DATA</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Merrimack, NH, US USA</t>
+          <t>Houston, TX, US USA</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Git, R, Java, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1481,32 +1481,32 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=112b2b77d84e9cea</t>
+          <t>https://www.indeed.com/viewjob?jk=849251c462b43768</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Senior Java Full Stack Engineer (w/Angular 16+) - Onsite Hybrid</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NTT DATA</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Providence, RI, US USA</t>
+          <t>Knoxville, TN, US USA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Git, R, Java, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1516,32 +1516,32 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=488cae64b00e9392</t>
+          <t>https://www.indeed.com/viewjob?jk=abaedb96e02f4738</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Senior Java Full Stack Engineer (w/Angular 16+) - Onsite Hybrid</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NTT DATA</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Smithfield, RI, US USA</t>
+          <t>Miami, FL, US USA</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Git, R, Java, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1551,32 +1551,32 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3d17d7c0b3e53461</t>
+          <t>https://www.indeed.com/viewjob?jk=db7b02d757882a18</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Senior Java Full Stack Engineer (w/Angular 16+) - Onsite Hybrid</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NTT DATA</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lowell, MA, US USA</t>
+          <t>Manchester, NH, US USA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Git, R, Java, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1586,32 +1586,32 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c72f579a689a8942</t>
+          <t>https://www.indeed.com/viewjob?jk=8621166f839defd4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Senior Java Full Stack Engineer (w/Angular 16+) - Onsite Hybrid</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NTT DATA</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Manchester, NH, US USA</t>
+          <t>Louisville, KY, US USA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Git, R, Java, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1621,32 +1621,32 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b7433c1e5709383b</t>
+          <t>https://www.indeed.com/viewjob?jk=ff5e4e01ac8a2007</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Product Security Associate (College Grad)</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bellevue, WA, US USA</t>
+          <t>Cleveland, OH, US USA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Docker, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Python, R, Java</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1656,32 +1656,32 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=689ae505cda9c946</t>
+          <t>https://www.indeed.com/viewjob?jk=805e094ba01689e4</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AI Research Scientist II (Intern) United States</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cisco</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Elkhart, IN, US USA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>RAG, Hugging Face, TensorFlow, PyTorch, Docker, Kubernetes, Git, Python, R, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1691,32 +1691,32 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1456ae41917c00db</t>
+          <t>https://www.indeed.com/viewjob?jk=6a1bbfd432707b01</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Senior Java Full Stack Engineer (w/Angular 16+) - Onsite Hybrid</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NTT DATA</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Merrimack, NH, US USA</t>
+          <t>Burlington, VT, US USA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, Terraform, Git, R, Java, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1726,32 +1726,32 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2b3d4a4e529be567</t>
+          <t>https://www.indeed.com/viewjob?jk=a8c8a7541cea289f</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AI Deployment Engineer- Fleet Management</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GE Aerospace</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>West Chester, OH, US USA</t>
+          <t>Grand Rapids, MI, US USA</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AI Engineer, RAG, TensorFlow, PyTorch, CI/CD, Git, Python, R, Scala, Optimization</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1761,32 +1761,32 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3b0405a9e26e9ef8</t>
+          <t>https://www.indeed.com/viewjob?jk=b579bc8a92828572</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AI and Automation Deployment Intern (Hybrid - Reston, VA Office)</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ellucian</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Reston, VA, US USA</t>
+          <t>Hartford, CT, US USA</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>S3, EC2, Docker, CI/CD, Jenkins, Terraform, Git, Python, R, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1796,32 +1796,32 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=89aebc7ded0cfa06</t>
+          <t>https://www.indeed.com/viewjob?jk=92ab54912b87053e</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Senior DevOps Engineer - San Francisco</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Plaud</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>San Francisco, CA, US USA</t>
+          <t>Indianapolis, IN, US USA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Gemini, Kubernetes, CI/CD, Jenkins, GitHub Actions, Terraform, Git, R, Scala, Optimization</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1831,32 +1831,32 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c543d32a8ba8e61f</t>
+          <t>https://www.indeed.com/viewjob?jk=918c5715f1d118e6</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>26-1083: Full Stack /Python Developer - Herndon, VA</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Navitas</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Herndon, VA, US USA</t>
+          <t>Dallas, TX, US USA</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>RAG, FastAPI, Docker, Kubernetes, CI/CD, Git, Databricks, Python, R, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1866,32 +1866,32 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8006327ae08096cb</t>
+          <t>https://www.indeed.com/viewjob?jk=fa2d474f0b38e50f</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Engineer - Stores &amp; Supply Chain</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Brooklyn Park, MN, US USA</t>
+          <t>Austin, TX, US USA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Docker, CI/CD, Kafka, MongoDB, Cassandra, R, Java, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1901,32 +1901,32 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f79ec300c1e824d2</t>
+          <t>https://www.indeed.com/viewjob?jk=7e803ae7a95deeb6</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Summer 2026 Howard University Graduate Intern, Technology- Analytics Department</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>American Civil Liberties Union</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Git, Polars, Matplotlib, Seaborn, Python, SQL, R, Hypothesis Testing</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1936,32 +1936,32 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4b9ef1087b6b9ef0</t>
+          <t>https://www.indeed.com/viewjob?jk=f1cfc0cc96023f9d</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Data Analyst II</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CoventBridge Group</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>US USA</t>
+          <t>Costa Mesa, CA, US USA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>RAG, Snowflake, Databricks, Tableau, Power BI, Matplotlib, Seaborn, Python, SQL, R</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1971,32 +1971,32 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e32f2f03611c6ce3</t>
+          <t>https://www.indeed.com/viewjob?jk=f440282db29dbde6</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sr. Data Scientist, Marketing</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Proofpoint</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sunnyvale, CA, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, AKS, Git, Snowflake, Python, SQL, R, Scala, Optimization</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2006,32 +2006,32 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e07073af5d3d0b74</t>
+          <t>https://www.indeed.com/viewjob?jk=f11049b034f6dad7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Data Scientist I-Neurology</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Children's Hospital of Philadelphia</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Philadelphia, PA, US USA</t>
+          <t>Columbus, OH, US USA</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Hadoop, MySQL, MongoDB, Python, SQL, R, Java, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2041,32 +2041,32 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=36eee684ae85976d</t>
+          <t>https://www.indeed.com/viewjob?jk=465bd4e67c50968a</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Economist III - Long Term Impact</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Wayfair</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Boston, MA, US USA</t>
+          <t>Fort Wayne, IN, US USA</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>RAG, BigQuery, Docker, BigQuery, Hadoop, Python, SQL, R, Scala, A/B Testing</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2076,24 +2076,24 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=66f28cdebb849a19</t>
+          <t>https://www.indeed.com/viewjob?jk=1246dfcff89eaa7a</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Senior Full Stack Software Engineer</t>
+          <t>AI Functional Senior Consultant</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Inn-Flow Inc.</t>
+          <t>Crowe LLP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Raleigh, NC, US USA</t>
+          <t>Boston, MA, US USA</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -2101,34 +2101,34 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Docker, Kubernetes, CI/CD, Git, SQL, R, Scala</t>
+          <t>Machine Learning Engineer, Generative AI, RAG, Copilot, Prompt Engineering, Azure ML, Power BI, R, Scala</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=9aa533db75254f28</t>
+          <t>https://www.indeed.com/viewjob?jk=c09c4f9f82526fc6</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GEN AI Engineer</t>
+          <t>Senior AI Software Engineer</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services (TCS)</t>
+          <t>Conversica</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tampa, FL, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AI Engineer, LangChain, RAG, Prompt Engineering, Python, R, Java, Scala, Optimization</t>
+          <t>AI Engineer, RAG, Terraform, Git, MySQL, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2146,24 +2146,24 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ba878f2c456e3228</t>
+          <t>https://www.indeed.com/viewjob?jk=51742fa130083ca3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Marketing Engineer</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Red Hat</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Raleigh, NC, US USA</t>
+          <t>Orange, CA, US USA</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2171,34 +2171,34 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, CI/CD, Jenkins, Git, Python, R, Scala</t>
+          <t>RAG, Git, NoSQL, Tableau, Power BI, Python, SQL, R, Scala</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8d58a276de20baa7</t>
+          <t>https://www.indeed.com/viewjob?jk=d4ff11563f8eb584</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SAP iXp Intern - Software Developer</t>
+          <t>Software Engineer - Development and Product Support (Work Location: In-Office schedule: in Alpharetta, GA)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>Global Payments</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Palo Alto, CA, US USA</t>
+          <t>Alpharetta, GA, US USA</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Data Scientist, Docker, Kubernetes, CI/CD, Git, Python, SQL, R, Java</t>
+          <t>TensorFlow, Hadoop, MySQL, NoSQL, Python, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2216,24 +2216,24 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e3d55e2faf39a9b0</t>
+          <t>https://www.indeed.com/viewjob?jk=dcbc69fdd1ea6671</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pharmaceutical Systems Engineer III (contract)</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sanofi</t>
+          <t>U.S. Bank</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Waltham, MA, US USA</t>
+          <t>Minneapolis, MN, US USA</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2241,34 +2241,34 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Data Scientist, Kubernetes, CI/CD, GitHub Actions, Git, Python, R, Scala, Optimization</t>
+          <t>Data Scientist, Generative AI, RAG, Git, Tableau, Power BI, Python, SQL, R</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a269726b7fbe18ec</t>
+          <t>https://www.indeed.com/viewjob?jk=f4b0a690020be069</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AI Engineer</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fried, Frank, Harris, Shriver &amp; Jacobson LLP</t>
+          <t>U.S. Bank</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Charlotte, NC, US USA</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2276,34 +2276,34 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>AI Engineer, RAG, Pinecone, Docker, Kubernetes, Python, R, Scala, Optimization</t>
+          <t>Data Scientist, Generative AI, RAG, Git, Tableau, Power BI, Python, SQL, R</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ccc46b6b2940ce5f</t>
+          <t>https://www.indeed.com/viewjob?jk=5bcef282fde595d5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Senior Implementation Engineer</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Just Appraised</t>
+          <t>U.S. Bank</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -2311,34 +2311,34 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>RAG, GitHub Actions, Git, PostgreSQL, Python, SQL, R, Java, Scala</t>
+          <t>Data Scientist, Generative AI, RAG, Git, Tableau, Power BI, Python, SQL, R</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ffb201068bbc0935</t>
+          <t>https://www.indeed.com/viewjob?jk=814e1157cbfb2f22</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Specialist - Architecture</t>
+          <t>Senior Data Scientist</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LTIMindtree</t>
+          <t>U.S. Bank</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Irving, TX, US USA</t>
+          <t>Atlanta, GA, US USA</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -2346,157 +2346,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>RAG, Docker, Kubernetes, Kafka, Python, SQL, R, Java, Scala</t>
+          <t>Data Scientist, Generative AI, RAG, Git, Tableau, Power BI, Python, SQL, R</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8d5be230e591e5ca</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Qode</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Basking Ridge, NJ, US USA</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>10</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Data Scientist, XGBoost, BigQuery, BigQuery, Tableau, Python, SQL, R, Optimization</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=e7eff5a90d2f5c21</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Senior Data Scientist</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Hinge Health</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>San Francisco, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>10</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, Copilot, Git, Databricks, Python, SQL, R, A/B Testing</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=04cf425808556719</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Senior Analyst, Onboard Revenue</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Carnival Cruise Line</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Miami, FL, US USA</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>10</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, Tableau, Power BI, SQL, R, Scala, Optimization, Hypothesis Testing</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=461fde9cab8d3de8</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Sr Software Engineer, Search (Fullstack)</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Cribl</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>10</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>RAG, S3, Data Lake, CI/CD, Jenkins, SQL, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=3a922fae006dc493</t>
+          <t>https://www.indeed.com/viewjob?jk=5c0f1ebf02616c0f</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-25.xlsx
+++ b/daily_matches/job_matches_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Marketing Data Scientist - GenAI</t>
+          <t>Software Engineer III</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -491,34 +491,34 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, LangChain, RAG, LLaMA, Mistral, Hugging Face, Prompt Engineering, FastAPI, AKS</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Docker, Kubernetes, CI/CD, Terraform</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=699336be01be17ae</t>
+          <t>https://www.indeed.com/viewjob?jk=2cd32825b07168a6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Marketing Data Scientist - GenAI</t>
+          <t>Software Engineer III (SWES03) DT_AI/ML</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -526,7 +526,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, LangChain, RAG, LLaMA, Mistral, Hugging Face, Prompt Engineering, FastAPI, AKS</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Docker, Kubernetes, CI/CD, Terraform</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,67 +536,67 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4e2e93be1c330abc</t>
+          <t>https://www.indeed.com/viewjob?jk=a073dd45695fc17b</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Software Engineer II_AI/ML</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Select Minds LLC</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dallas, TX, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16.7</v>
+        <v>17.8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, LangChain, TensorFlow, PyTorch, XGBoost, Glue, PySpark, Tableau, Matplotlib</t>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Docker, Kubernetes, CI/CD, Git</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=da736b6af49a61cb</t>
+          <t>https://www.indeed.com/viewjob?jk=2a98bbc96397eaf9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Analytics Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Radwell International</t>
+          <t>SRS Distribution</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Willingboro, NJ, US USA</t>
+          <t>McKinney, TX, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15.6</v>
+        <v>16.7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Redshift, Data Lake, CI/CD, Git, Snowflake, Databricks, Redshift, NoSQL</t>
+          <t>Data Scientist, RAG, Redshift, BigQuery, Snowflake, BigQuery, Redshift, Hadoop, Tableau, Power BI</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,67 +606,67 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7d0a69e61901c434</t>
+          <t>https://www.indeed.com/viewjob?jk=01278285fb17a0ad</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sr Data Analyst - Digital and Ecommerce (BigQuery, Power BI)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>Rice Engineering</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, US USA</t>
+          <t>Houston, TX, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14.4</v>
+        <v>11.1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, BigQuery, Git, BigQuery, Hadoop, Power BI, Python, SQL, R</t>
+          <t>Data Scientist, Git, Hadoop, Tableau, Power BI, Python, SQL, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=8195932443931f9b</t>
+          <t>https://www.indeed.com/viewjob?jk=4a61e3564cb83914</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AI Analytics and Visualization Engineer</t>
+          <t>Machine Learning Engineer (GoLang)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NVIDIA</t>
+          <t>Comcast</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CA, US USA</t>
+          <t>Washington, DC, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RAG, Copilot, Kinesis, Docker, Kubernetes, Git, Kafka, NoSQL, Python, SQL</t>
+          <t>Data Scientist, Machine Learning Engineer, RAG, Kubernetes, CI/CD, Terraform, Kafka, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,67 +676,67 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=0cb4ad153c4474d3</t>
+          <t>https://www.indeed.com/viewjob?jk=cd59edbaf799283c</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Senior Solutions Architect, GenAI</t>
+          <t>CCB Risk Program Senior Associate</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>JPMorganChase</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vernon Hills, IL, US USA</t>
+          <t>Jersey City, NJ, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, RAG, EC2, Data Lake, AKS, CI/CD, Terraform, Git, Python</t>
+          <t>RAG, TensorFlow, PyTorch, Keras, AWS SageMaker, GCP Vertex AI, Git, Python, R, Optimization</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=b3eacba88a38b081</t>
+          <t>https://www.indeed.com/viewjob?jk=3926a9735dea4110</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GenAI Engineer- Python</t>
+          <t>AI Agent Engineer New</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Infosys</t>
+          <t>Observe.AI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Charlotte, NC, US USA</t>
+          <t>Redwood City, CA, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.3</v>
+        <v>11.1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, RAG, Azure ML, BigQuery, CI/CD, Snowflake, BigQuery, Hadoop, Python</t>
+          <t>LangChain, RAG, LLaMA, Gemini, Copilot, Prompt Engineering, Python, R, Java, Optimization</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,357 +746,42 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=57a92c99e0a7f72f</t>
+          <t>https://www.indeed.com/viewjob?jk=07ce3418e6ab2dae</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Data Scientist II</t>
+          <t>Software Engineer - UiPath Automation Developer - Remote</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chewy</t>
+          <t>Mayo Clinic</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bellevue, WA, US USA</t>
+          <t>Rochester, MN, US USA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Data Scientist, Glue, Athena, Redshift, Snowflake, Redshift, Tableau, Python, SQL, R</t>
+          <t>Generative AI, RAG, Gemini, Copilot, CI/CD, Git, Python, R, Java, Scala</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=6a411713e313df81</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Software Engineer (L1-L5)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Gray Swan AI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Pittsburgh, PA, US USA</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>RAG, FastAPI, CI/CD, Git, MongoDB, NoSQL, Python, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=28193e897b492863</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Senior Full-Stack Software Engineer</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>NVIDIA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Santa Clara, CA, US USA</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>RAG, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD, Python, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=8fcf7fff04f1f9c3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Jives Media</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>US USA</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, TensorFlow, PyTorch, Hadoop, Tableau, Power BI, Python, SQL, R</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=99587f12c0f3275c</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Senior AI / ML Engineer</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Select Minds LLC</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Dallas, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Generative AI, AWS SageMaker, Docker, Kubernetes, CI/CD, Databricks, Hadoop, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=4fbed1e14e3c66df</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Java Full Stack Developer (Server-side dev. (Java/Spring Boot) and Angular client-side dev.)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>NTT DATA</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Raleigh-Durham, NC, US USA</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Generative AI, RAG, Copilot, Docker, Kubernetes, Jenkins, Terraform, Git, R, Java</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=7e66e7f3fe329fd1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Software Development Engineer II, ML Platform</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Remitly</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Seattle, WA, US USA</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Data Scientist, CI/CD, Jenkins, GitHub Actions, Git, R, Java, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=94eaf5e9cbc1dd10</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Analytics Engineer II</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CDW</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Data Scientist, Data Lake, AKS, Git, Power BI, Python, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=1c8e2db8b2184f05</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI Sales Solutions Architect</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CDW</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Vernon Hills, IL, US USA</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Data Scientist, Generative AI, RAG, TensorFlow, PyTorch, AKS, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=5cd89cab599ef1c3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Senior Technical Product Owner - Data Platform</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Speridian Technologies</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Remote, US USA</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, MLflow, CI/CD, Databricks, Python, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=829043b08de7d050</t>
+          <t>https://www.indeed.com/viewjob?jk=e45a9026604c809d</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-25.xlsx
+++ b/daily_matches/job_matches_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Software Engineer III</t>
+          <t>Software Engineer II - Content Platform Engineering</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JPMorganChase</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>Bristol, CT, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -491,29 +491,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Docker, Kubernetes, CI/CD, Terraform</t>
+          <t>Data Scientist, Generative AI, RAG, Prompt Engineering, TensorFlow, PyTorch, S3, EC2, Docker, Kubernetes</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2cd32825b07168a6</t>
+          <t>https://www.indeed.com/viewjob?jk=63b62b8246a9f659</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Software Engineer III (SWES03) DT_AI/ML</t>
+          <t>Machine Learning Engineer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JPMorganChase</t>
+          <t>CVS Health</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,33 +522,33 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>18.9</v>
+        <v>16.7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Docker, Kubernetes, CI/CD, Terraform</t>
+          <t>Data Scientist, Machine Learning Engineer, RAG, TensorFlow, PyTorch, BigQuery, Snowflake, BigQuery, Kafka, Python</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=a073dd45695fc17b</t>
+          <t>https://www.indeed.com/viewjob?jk=f836fc84892ec33f</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Software Engineer II_AI/ML</t>
+          <t>Data Scientist - Pricing and Promotions Optimization</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JPMorganChase</t>
+          <t>CVS Health</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,46 +557,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.8</v>
+        <v>13.3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, TensorFlow, PyTorch, AWS SageMaker, Azure ML, Docker, Kubernetes, CI/CD, Git</t>
+          <t>Data Scientist, AWS SageMaker, GCP Vertex AI, Git, Databricks, PySpark, Hadoop, Python, SQL, R</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2a98bbc96397eaf9</t>
+          <t>https://www.indeed.com/viewjob?jk=f2dd0084730de1d4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Analytics Engineer</t>
+          <t>Data Scientist - Pricing and Promotions Optimization</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SRS Distribution</t>
+          <t>CVS Health</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>McKinney, TX, US USA</t>
+          <t>Wellesley, MA, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16.7</v>
+        <v>13.3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Data Scientist, RAG, Redshift, BigQuery, Snowflake, BigQuery, Redshift, Hadoop, Tableau, Power BI</t>
+          <t>Data Scientist, AWS SageMaker, GCP Vertex AI, Git, Databricks, PySpark, Hadoop, Python, SQL, R</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=01278285fb17a0ad</t>
+          <t>https://www.indeed.com/viewjob?jk=7ac1b66db18d2c42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Software Engineer - DevOps</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rice Engineering</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Houston, TX, US USA</t>
+          <t>New York, NY, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Data Scientist, Git, Hadoop, Tableau, Power BI, Python, SQL, R, Scala, Optimization</t>
+          <t>Data Scientist, Copilot, Docker, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Python, R</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,24 +641,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=4a61e3564cb83914</t>
+          <t>https://www.indeed.com/viewjob?jk=c10fe2dd154808d6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer (GoLang)</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Comcast</t>
+          <t>Rice University</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Washington, DC, US USA</t>
+          <t>Houston, TX, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -666,7 +666,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, RAG, Kubernetes, CI/CD, Terraform, Kafka, R, Scala, Optimization</t>
+          <t>Data Scientist, Git, Hadoop, Tableau, Power BI, Python, SQL, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,24 +676,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=cd59edbaf799283c</t>
+          <t>https://www.indeed.com/viewjob?jk=29c39de545706a17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CCB Risk Program Senior Associate</t>
+          <t>AI Solutions Engineer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JPMorganChase</t>
+          <t>Conagra Brands</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jersey City, NJ, US USA</t>
+          <t>Chicago, IL, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RAG, TensorFlow, PyTorch, Keras, AWS SageMaker, GCP Vertex AI, Git, Python, R, Optimization</t>
+          <t>Generative AI, LangChain, RAG, FAISS, Pinecone, Python, SQL, R, Java, Optimization</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,32 +711,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=3926a9735dea4110</t>
+          <t>https://www.indeed.com/viewjob?jk=1b181f522ed1f1b9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AI Agent Engineer New</t>
+          <t>AI Engineering Intern (Generative &amp; Agentic AI)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Observe.AI</t>
+          <t>Boston Scientific</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Redwood City, CA, US USA</t>
+          <t>Marlboro, MA, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LangChain, RAG, LLaMA, Gemini, Copilot, Prompt Engineering, Python, R, Java, Optimization</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Prompt Engineering, Python, R, Scala, Optimization</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,42 +746,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=07ce3418e6ab2dae</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Software Engineer - UiPath Automation Developer - Remote</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Mayo Clinic</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Rochester, MN, US USA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Generative AI, RAG, Gemini, Copilot, CI/CD, Git, Python, R, Java, Scala</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=e45a9026604c809d</t>
+          <t>https://www.indeed.com/viewjob?jk=7682f4c2d9fcb8d0</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-25.xlsx
+++ b/daily_matches/job_matches_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Software Engineer II - Content Platform Engineering</t>
+          <t>AI Research Scientist</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bristol, CT, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18.9</v>
+        <v>17.8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Scientist, Generative AI, RAG, Prompt Engineering, TensorFlow, PyTorch, S3, EC2, Docker, Kubernetes</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=63b62b8246a9f659</t>
+          <t>https://www.indeed.com/viewjob?jk=bfbe23de529a0287</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Machine Learning Engineer</t>
+          <t>AI Research Scientist</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16.7</v>
+        <v>17.8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, Machine Learning Engineer, RAG, TensorFlow, PyTorch, BigQuery, Snowflake, BigQuery, Kafka, Python</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f836fc84892ec33f</t>
+          <t>https://www.indeed.com/viewjob?jk=2d5a83effdf7814d</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Data Scientist - Pricing and Promotions Optimization</t>
+          <t>AI Research Scientist</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13.3</v>
+        <v>17.8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Scientist, AWS SageMaker, GCP Vertex AI, Git, Databricks, PySpark, Hadoop, Python, SQL, R</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f2dd0084730de1d4</t>
+          <t>https://www.indeed.com/viewjob?jk=570e40d9945f8462</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Data Scientist - Pricing and Promotions Optimization</t>
+          <t>AI Research Scientist</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wellesley, MA, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13.3</v>
+        <v>16.7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Data Scientist, AWS SageMaker, GCP Vertex AI, Git, Databricks, PySpark, Hadoop, Python, SQL, R</t>
+          <t>Generative AI, LangChain, RAG, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=7ac1b66db18d2c42</t>
+          <t>https://www.indeed.com/viewjob?jk=ea059caea2876371</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Software Engineer - DevOps</t>
+          <t>AI Research Scientist</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>New York, NY, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>13.3</v>
+        <v>16.7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Data Scientist, Copilot, Docker, CI/CD, Jenkins, GitHub Actions, Terraform, Git, Python, R</t>
+          <t>Generative AI, LangChain, RAG, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,32 +641,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=c10fe2dd154808d6</t>
+          <t>https://www.indeed.com/viewjob?jk=f9eb9b33494e6259</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>AI Research Scientist</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rice University</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Houston, TX, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Data Scientist, Git, Hadoop, Tableau, Power BI, Python, SQL, R, Scala, Optimization</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Prompt Engineering, TensorFlow, PyTorch, Data Lake, Databricks, Python</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,32 +676,32 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=29c39de545706a17</t>
+          <t>https://www.indeed.com/viewjob?jk=3a339f0dc665d29e</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AI Solutions Engineer</t>
+          <t>AI Research Scientist</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Conagra Brands</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chicago, IL, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Generative AI, LangChain, RAG, FAISS, Pinecone, Python, SQL, R, Java, Optimization</t>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Prompt Engineering, TensorFlow, PyTorch, Data Lake, Databricks, Python</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,42 +711,392 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=1b181f522ed1f1b9</t>
+          <t>https://www.indeed.com/viewjob?jk=9fa49f23209b030b</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AI Engineering Intern (Generative &amp; Agentic AI)</t>
+          <t>AI Research Scientist</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Boston Scientific</t>
+          <t>Openkyber</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marlboro, MA, US USA</t>
+          <t>AK, US USA</t>
         </is>
       </c>
       <c r="D9" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Hugging Face, TensorFlow, PyTorch, Keras, spaCy, NLTK, CI/CD, Git, Python, SQL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=d468c4b50dbfb2d9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ML Support Engineer</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LangChain, CI/CD, Snowflake, Kafka, PostgreSQL, MongoDB, Python, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a4281d96efe6a7c5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Generative AI Intern</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Prompt Engineering, FastAPI, Docker, Kubernetes, CI/CD, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1e6a16d48a411f39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer, AI Platform &amp; Agents</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Coalition Inc.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Data Scientist, LangChain, RAG, LLaMA, Docker, Git, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=d4ad68469a5b5db5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Generative AI Intern</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Gemini, Prompt Engineering, BigQuery, CI/CD, BigQuery, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1f17ecff94068cea</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Generative AI Intern</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, Prompt Engineering, Git, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6757c9a15127bcf0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI Support Engineer</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>RAG, spaCy, NLTK, S3, Docker, CI/CD, Git, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=176ca9132aa39ac6</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI Research Scientist</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, TensorFlow, PyTorch, OpenCV, Git, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=f834bc30d82a9a7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI Support Engineer</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>10</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Prompt Engineering, Python, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=7682f4c2d9fcb8d0</t>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AI Engineer, Cortex, S3, Snowflake, Python, SQL, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2b3ee6a3cdd8704e</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sr AI/ML Engineer - Remote Nationwide or Hybrid in MN/DC</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Optum</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Minnetonka, MN, US USA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, Prompt Engineering, CI/CD, Terraform, Git, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8634529536c8c49c</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI Research Scientist</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Openkyber</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AK, US USA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TensorFlow, PyTorch, Git, MySQL, Python, SQL, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e008dc53015b2096</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-25.xlsx
+++ b/daily_matches/job_matches_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI Research Scientist</t>
+          <t>SR. DATA ENGINEER THREAT MANAGEMENT DATA &amp; ANALYTICS (HYBRID-CHARLOTTE, NC)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Compass Group USA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Charlotte, NC, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17.8</v>
+        <v>15.6</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch</t>
+          <t>RAG, Redshift, BigQuery, Snowflake, BigQuery, Redshift, Hadoop, PostgreSQL, MySQL, Tableau</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=bfbe23de529a0287</t>
+          <t>https://www.indeed.com/viewjob?jk=65b5898fc3882a0c</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AI Research Scientist</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>TruMinds Technology Inc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Hartford, CT, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.8</v>
+        <v>13.3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch</t>
+          <t>Data Scientist, TensorFlow, PyTorch, MLflow, Docker, Tableau, Power BI, Python, SQL, R</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=2d5a83effdf7814d</t>
+          <t>https://www.indeed.com/viewjob?jk=e03879d64f0d66b6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AI Research Scientist</t>
+          <t>Senior Software Developer, Backend</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Sketchy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Remote, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17.8</v>
+        <v>11.1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, FAISS, Pinecone, Prompt Engineering, TensorFlow, PyTorch</t>
+          <t>Generative AI, RAG, EC2, Docker, CI/CD, Terraform, SQL, R, Java, Scala</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=570e40d9945f8462</t>
+          <t>https://www.indeed.com/viewjob?jk=d4a8487ca2517fec</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AI Research Scientist</t>
+          <t>Software Engineer Intern</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Proofpoint</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>PA, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16.7</v>
+        <v>10</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Generative AI, LangChain, RAG, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD</t>
+          <t>RAG, AKS, CI/CD, Git, NoSQL, Python, SQL, R, Java</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,32 +606,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=ea059caea2876371</t>
+          <t>https://www.indeed.com/viewjob?jk=5879774ee0868d17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AI Research Scientist</t>
+          <t>APEX (AI Program for EXploration) Postdoctoral Researcher</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Openkyber</t>
+          <t>Argonne National Laboratory</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AK, US USA</t>
+          <t>Lemont, IL, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16.7</v>
+        <v>10</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Generative AI, LangChain, RAG, Pinecone, Prompt Engineering, TensorFlow, PyTorch, Docker, Kubernetes, CI/CD</t>
+          <t>LangChain, RAG, PyTorch, Docker, CI/CD, Git, Python, R, Optimization</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,462 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=f9eb9b33494e6259</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI Research Scientist</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Openkyber</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AK, US USA</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Prompt Engineering, TensorFlow, PyTorch, Data Lake, Databricks, Python</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=3a339f0dc665d29e</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI Research Scientist</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Openkyber</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>AK, US USA</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Prompt Engineering, TensorFlow, PyTorch, Data Lake, Databricks, Python</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=9fa49f23209b030b</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI Research Scientist</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Openkyber</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>AK, US USA</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Hugging Face, TensorFlow, PyTorch, Keras, spaCy, NLTK, CI/CD, Git, Python, SQL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=d468c4b50dbfb2d9</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ML Support Engineer</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Openkyber</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>AK, US USA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LangChain, CI/CD, Snowflake, Kafka, PostgreSQL, MongoDB, Python, SQL, R, Java</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=a4281d96efe6a7c5</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Generative AI Intern</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Openkyber</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>AK, US USA</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Generative AI, RAG, Prompt Engineering, FastAPI, Docker, Kubernetes, CI/CD, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=1e6a16d48a411f39</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer, AI Platform &amp; Agents</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Coalition Inc.</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Austin, TX, US USA</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Data Scientist, LangChain, RAG, LLaMA, Docker, Git, Python, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=d4ad68469a5b5db5</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Generative AI Intern</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Openkyber</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>AK, US USA</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Generative AI, RAG, Gemini, Prompt Engineering, BigQuery, CI/CD, BigQuery, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=1f17ecff94068cea</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Generative AI Intern</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Openkyber</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>AK, US USA</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>AI Engineer, Generative AI, LangChain, RAG, Hugging Face, Prompt Engineering, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=6757c9a15127bcf0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI Support Engineer</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Openkyber</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>AK, US USA</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>RAG, spaCy, NLTK, S3, Docker, CI/CD, Git, Python, SQL, R</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=176ca9132aa39ac6</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI Research Scientist</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Openkyber</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>AK, US USA</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, TensorFlow, PyTorch, OpenCV, Git, Python, SQL, R, Scala</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=f834bc30d82a9a7c</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI Support Engineer</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Openkyber</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>AK, US USA</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>AI Engineer, Cortex, S3, Snowflake, Python, SQL, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=2b3ee6a3cdd8704e</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Sr AI/ML Engineer - Remote Nationwide or Hybrid in MN/DC</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Optum</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Minnetonka, MN, US USA</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Data Scientist, RAG, Prompt Engineering, CI/CD, Terraform, Git, Python, R, Scala</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=8634529536c8c49c</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI Research Scientist</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Openkyber</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>AK, US USA</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>10</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TensorFlow, PyTorch, Git, MySQL, Python, SQL, R, Scala, Optimization</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=e008dc53015b2096</t>
+          <t>https://www.indeed.com/viewjob?jk=2bf32ba363921366</t>
         </is>
       </c>
     </row>

--- a/daily_matches/job_matches_2026-02-25.xlsx
+++ b/daily_matches/job_matches_2026-02-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SR. DATA ENGINEER THREAT MANAGEMENT DATA &amp; ANALYTICS (HYBRID-CHARLOTTE, NC)</t>
+          <t>Machine Learning Engineer / Data Scientist</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compass Group USA</t>
+          <t>SCH SERVICES</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Charlotte, NC, US USA</t>
+          <t>MN, US USA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15.6</v>
+        <v>16.7</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RAG, Redshift, BigQuery, Snowflake, BigQuery, Redshift, Hadoop, PostgreSQL, MySQL, Tableau</t>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,32 +501,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=65b5898fc3882a0c</t>
+          <t>https://www.indeed.com/viewjob?jk=b40e2ee898c01f3e</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Machine Learning Engineer / Data Scientist</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TruMinds Technology Inc</t>
+          <t>SCH SERVICES</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hartford, CT, US USA</t>
+          <t>MI, US USA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13.3</v>
+        <v>16.7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Scientist, TensorFlow, PyTorch, MLflow, Docker, Tableau, Power BI, Python, SQL, R</t>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -536,32 +536,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=e03879d64f0d66b6</t>
+          <t>https://www.indeed.com/viewjob?jk=880f2ce5a104d2a8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Software Developer, Backend</t>
+          <t>Machine Learning Engineer / Data Scientist</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sketchy</t>
+          <t>SCH SERVICES</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Remote, US USA</t>
+          <t>NY, US USA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.1</v>
+        <v>16.7</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Generative AI, RAG, EC2, Docker, CI/CD, Terraform, SQL, R, Java, Scala</t>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -571,32 +571,32 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=d4a8487ca2517fec</t>
+          <t>https://www.indeed.com/viewjob?jk=92f891f34c416a3f</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Software Engineer Intern</t>
+          <t>Machine Learning Engineer / Data Scientist</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proofpoint</t>
+          <t>SCH SERVICES</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PA, US USA</t>
+          <t>NJ, US USA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>16.7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RAG, AKS, CI/CD, Git, NoSQL, Python, SQL, R, Java</t>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -606,42 +606,1372 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.indeed.com/viewjob?jk=5879774ee0868d17</t>
+          <t>https://www.indeed.com/viewjob?jk=f0cf08583ef3eb6b</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APEX (AI Program for EXploration) Postdoctoral Researcher</t>
+          <t>Machine Learning Engineer / Data Scientist</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Argonne National Laboratory</t>
+          <t>SCH SERVICES</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lemont, IL, US USA</t>
+          <t>FL, US USA</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2b7f3def40c7943f</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SCH SERVICES</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OH, US USA</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=bdb0b164eeb909a1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SCH SERVICES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CA, US USA</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=3e1e31bc2d9e303d</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SCH SERVICES</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>US USA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1b07a7a9225178ae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SCH SERVICES</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MA, US USA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=a9533cccb715c6b4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SCH SERVICES</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MO, US USA</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=08beeaf92f8ab60a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SCH SERVICES</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AZ, US USA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8757ea5c1cf1d347</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SCH SERVICES</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>IN, US USA</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=39dc18d708813bbb</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SCH SERVICES</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GA, US USA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=d29dc7d07dd5ac79</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SCH SERVICES</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TX, US USA</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=115ae6c9a1a21fb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SCH SERVICES</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>WI, US USA</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2933a66c3da5cd00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SCH SERVICES</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PA, US USA</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=4284c155adc606e9</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SCH SERVICES</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CO, US USA</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=2e035eff741bfcc3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer / Data Scientist</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SCH SERVICES</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>IL, US USA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Data Scientist, Machine Learning Engineer, Generative AI, LangChain, RAG, LLaMA, PyTorch, MLflow, Docker, CI/CD</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e2cc9f59b40619c1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Senior Data Engineer</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gradient AI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Remote, US USA</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, Data Lake, Docker, Kubernetes, CI/CD, Terraform, Snowflake, Databricks, PySpark</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=08f4a08591f4e565</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Full Stack AI Engineer</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Origin Harbor Capital Solutions</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>AI Engineer, RAG, Copilot, Pinecone, Prompt Engineering, FastAPI, Kubernetes, CI/CD, Git, Python</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e7fa9dd995f02136</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sr Advisor II, AI Architect</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Phillips 66</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Houston, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>AI Engineer, Data Scientist, Generative AI, Docker, Kubernetes, AKS, CI/CD, Databricks, Python, R</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=1b85a978b0b96b10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Software Engineer II</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ripple</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>RAG, S3, Athena, Data Lake, Kinesis, CI/CD, Terraform, Git, Databricks, Python</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=6988d9d372dc66d3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GenAI Engineer/Eval Engineer Summer Internship</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Johnson &amp; Johnson</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Titusville, FL, US USA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AI Engineer, Data Scientist, Generative AI, Hugging Face, TensorFlow, PyTorch, Docker, Jenkins, Git, Python</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=143c288602dfd3c0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Senior Backend Engineer, Visit Experience</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Metropolis</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Los Angeles, CA, US USA</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, CI/CD, Git, Snowflake, PostgreSQL, MySQL, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=902280baf85eed1d</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Senior Backend Engineer, Visit Experience</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Metropolis</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Seattle, WA, US USA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, CI/CD, Git, Snowflake, PostgreSQL, MySQL, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=4cbd032873d057ba</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Senior Backend Engineer, Recognition Intelligence Applications</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Metropolis</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Seattle, WA, US USA</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, CI/CD, Git, Snowflake, PostgreSQL, MySQL, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=367006ffc10990ec</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Software Engineer, Applied AI</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HackerOne</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Seattle, WA, US USA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Prompt Engineering, TensorFlow, PyTorch, GCP Vertex AI, Azure ML, Git</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=90f92b51df5ec3a1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Software Engineer, Applied AI</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HackerOne</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Austin, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>AI Engineer, Generative AI, LangChain, RAG, Prompt Engineering, TensorFlow, PyTorch, GCP Vertex AI, Azure ML, Git</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=7c71b69a941aca72</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Senior Business Insights Analyst</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Machinify</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Dallas, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>RAG, Data Lake, Git, Snowflake, Databricks, Tableau, Power BI, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=d8faa6130c5a1473</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Senior Backend Engineer, Revenue Platform</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Metropolis</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Seattle, WA, US USA</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Git, Snowflake, PostgreSQL, MySQL, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=742a0d567bd13742</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Intern - AI Engineer</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ConnectiveRx</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Pittsburgh, PA, US USA</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>AI Engineer, LangChain, RAG, LLaMA, Prompt Engineering, TensorFlow, PyTorch, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=e44a9cffc8adc030</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Flip</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Brooklyn, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>FastAPI, Kubernetes, CI/CD, Snowflake, MongoDB, Tableau, Python, R, Scala, Optimization</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=509700a4652221cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ExxonMobil</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Spring, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer, RAG, CI/CD, Git, Snowflake, Databricks, Python, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=355c3e081168f031</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sr. Software Engineer (Remote)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Inspira Financial</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Oak Brook, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>RAG, CI/CD, Jenkins, Git, MongoDB, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=03f6284daa41bb63</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI Developer</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>eClerx</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Alpharetta, GA, US USA</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Data Scientist, Generative AI, LangChain, RAG, TensorFlow, PyTorch, Kubernetes, Python, R, Scala</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=348cdc5f8ebdba47</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Data Engineer II</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Trepp</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>New York, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
         <v>10</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LangChain, RAG, PyTorch, Docker, CI/CD, Git, Python, R, Optimization</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/viewjob?jk=2bf32ba363921366</t>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>S3, Glue, CI/CD, Git, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=cbd8df1b20c5849b</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Azure Automation Engineer</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Vytwo Technologies</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Prosper, TX, US USA</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>AI Engineer, Synapse, AKS, Terraform, Git, Databricks, Python, SQL, R</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c97b79acbe231a69</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Scientific Software Engineer (Full Stack)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Axle</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Frederick, MD, US USA</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>LangChain, RAG, Copilot, FastAPI, Kubernetes, Git, Kafka, Python, R</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=8b30e898fd3b9bf2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Allegiant Air</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Las Vegas, NV, US USA</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>S3, Glue, Redshift, Terraform, Redshift, Python, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=c1785b277f2b3b5c</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Software Engineer Senior Consultant II</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Allstate Insurance</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Chicago, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Generative AI, RAG, Kafka, MongoDB, NoSQL, Python, SQL, R, Java</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=87f74cfacf177a29</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Support Engineer (L2)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mirantis</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Myrtle Point, OR, US USA</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>10</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>RAG, Docker, Kubernetes, PostgreSQL, MySQL, Cassandra, SQL, R, Scala</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=009fd816230530d8</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sr. Quality Engineer- First Dollar (Remote)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Inspira Financial</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Oak Brook, IL, US USA</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RAG, Copilot, Jenkins, Git, Python, SQL, R, Java, Scala</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=06c70c808003a808</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Restaurant Depot</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Whitestone, NY, US USA</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Data Scientist, RAG, Docker, Apache Airflow, Git, Python, SQL, R, Optimization</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/viewjob?jk=eadfa0a4e87e0e57</t>
         </is>
       </c>
     </row>
